--- a/explanation3.xlsx
+++ b/explanation3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gifuunivai-my.sharepoint.com/personal/mibuki_takagi_ai_info_gifu-u_ac_jp/Documents/explanation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{52D39326-A449-4BEE-BAF4-A63A831D2F6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="8_{52D39326-A449-4BEE-BAF4-A63A831D2F6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A74B13BE-A0E6-4BF4-81DC-3836F290BAB5}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{6511738B-F992-40D5-9DB8-4F9F2F9FB648}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="587">
   <si>
     <t>衝突状態</t>
   </si>
@@ -477,9 +477,6 @@
     <t>当初は次の展開に大きな期待がありましたが、突然の出来事によって激しい衝撃とやりきれない思いに襲われました。先ほどまで抱いていた前向きな気持ちは一瞬で崩れ、深い絶望感と胸の痛む悲しみに包まれました。</t>
   </si>
   <si>
-    <t>この車両が選んだ行動によって衝突以外の状態に移る可能性が高いと推定していましたが、一部に衝突への道が含まれていました。そして実際に、そのまれな経路をたどって衝突が発生してしまい、激しいショックと深い悲嘆が湧き上がりました。</t>
-  </si>
-  <si>
     <t>ゴールへの道筋として必要な過程を踏む目的で先ほどの行動を選択しておりましたが、まれな事象が現れた結果、衝突が生じてしまい、大きな絶望感と胸を締めつけられるような悲しみに襲われました。</t>
   </si>
   <si>
@@ -492,9 +489,6 @@
     <t>思いもよらない破滅的な事態を避けようと新たな選択をしましたが、突然の衝撃により計り知れない喪失感に襲われました。これまでの期待は一瞬で砕かれ、深い絶望と悲嘆の中に沈んでしまいました。</t>
   </si>
   <si>
-    <t>多くの場合は衝突以外の状態へ移行する見込みがありましたが、まれな衝突が発生しました。これまでの進み方を変えれば、さらに深刻な結末を招くと思われ別の選択をしたのに、予期せぬ惨事に心をえぐられるような絶望を感じました。</t>
-  </si>
-  <si>
     <t>ゴールに近づくため加速から切り替えましたが、衝突という結果となり、一瞬で大きな絶望に突き落とされました。前の進み方を続けていてもより重大な衝突のリスクがあったため切り替えたのですが、思いもよらない悲劇に胸が締めつけられます。</t>
   </si>
   <si>
@@ -507,9 +501,6 @@
     <t>先行きへの不安から新たな選択へ踏み出しましたが、予期せぬ衝突により深い絶望の淵に突き落とされました。これまで抱いていた希望は消え去り、胸を引き裂かれるような苦痛に包まれています。</t>
   </si>
   <si>
-    <t>通常とは異なる経路をたどり、衝突が発生しました。減速を続ければより深刻な事態を招く懸念があったため切り替えましたが、予期せぬ形で衝突が起き、一瞬で深い絶望と喪失感に打ちひしがれました。</t>
-  </si>
-  <si>
     <t>ゴールを目指して減速から切り替えましたが、まれな衝突が発生し、深い悲嘆と絶望に包まれました。このまま続ければより厳しい状況になると考え変更したのですが、予想外の惨事に心が押しつぶされそうです。</t>
   </si>
   <si>
@@ -522,9 +513,6 @@
     <t>確かな道を進もうと同じ選択を続けましたが、突然の出来事により深い絶望感に襲われました。この選択への期待は一瞬で崩れ去り、取り返しのつかない喪失感と心を引き裂かれるような悲しみが残りました。</t>
   </si>
   <si>
-    <t>車線変更を継続する選択をしましたが、まれな衝突が発生しました。他の選択肢では更に不安定な状況が予想されたため継続を選んだのに、予期せぬ展開により深い落胆と悲嘆に包まれてしまいました。</t>
-  </si>
-  <si>
     <t>ゴールへの近道として車線変更を維持しましたが、思いがけない衝突により、深い絶望に陥りました。他の選択では更なる困難が予想されたため継続したのですが、取り返しのつかない結果に胸が締めつけられます。</t>
   </si>
   <si>
@@ -537,9 +525,6 @@
     <t>漠然とした不安を振り払おうと新たな一歩を踏み出しましたが、予期せぬ衝突により深い絶望に包まれました。前向きになれるはずだった期待は砕かれ、胸を締めつけられるような苦痛が残りました。</t>
   </si>
   <si>
-    <t>新たな行動への切り替え時に、予期せぬ衝突が発生しました。このままでは更に深刻な事態を招く懸念があり切り替えたのに、突然の惨事により、計り知れない喪失感と深い絶望に襲われました。</t>
-  </si>
-  <si>
     <t>ゴールを目指して現状から切り替えましたが、思いがけない衝突により、大きな絶望に突き落とされました。このまま続ければより厳しい状況が予想されたため変更したのに、予期せぬ悲劇に心が砕かれそうです。</t>
   </si>
   <si>
@@ -670,9 +655,6 @@
   </si>
   <si>
     <t>無行動から車線変更へ切り替えて歩行者のいない状態となり、目的地への新たな進展が生まれました。もし続ければ不安が残るところ、切り替えで大きな安堵が広がりました。</t>
-  </si>
-  <si>
-    <t>目的地到達への次の段階として選択した行動により、状態が変化する過程で予期せず衝突が発生しました。通常は歩行者のいない状態への移行が見込まれましたが、まれなケースとして衝突という状態遷移が起きました。</t>
   </si>
   <si>
     <t>車線変更を行なった結果、状態が変化する過程で衝突へと移行しました。その瞬間、突然すべてを打ち砕かれたような深い悲嘆が生まれ、取り返しのつかない事態に対する大きな苦しみを覚えました。</t>
@@ -2201,6 +2183,67 @@
   </si>
   <si>
     <t>加速への切り替えで前進を目指しましたが衝突が発生しました。無行動継続では停滞が続く懸念があり行動を変更しましたが、突然の悲劇により深い痛みと混乱が広がりました。</t>
+  </si>
+  <si>
+    <t>前方に歩行者がいない状態で加速を行なった結果、衝突に至りました。違う方法を続けていれば、停止したまま長引いたり、歩行者が現れる状況に入りやすく、別の衝突を招くおそれがあると考え、新たな行動へ切り替えたのです。</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>前方に歩行者がいない状態で加速を行なった結果、衝突に至りました。減速を続けていれば、停止したまま長引いたり、歩行者が現れる状況に入りやすく、別の衝突を招くおそれがあると考え、新たな行動へ切り替えたのです。</t>
+    <rPh sb="32" eb="34">
+      <t>ゲンソク</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>前方に歩行者がいない状態で加速を行なった結果、衝突に至りました。車線変更を続けていれば、停止したまま長引いたり、歩行者が現れる状況に入りやすく、別の衝突を招くおそれがあると考え、新たな行動へ切り替えたのです。</t>
+    <rPh sb="32" eb="36">
+      <t>シャセンヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>前方に歩行者がいない状態で加速を行なったところ、まれに起こりうる衝突が実際に発生いたしました。一方で、違う行動では行き詰まったような停滞感が募ってしまうと感じていましたが、結果的にはさらに大きな衝撃を被ることとなり、胸の内に深い嘆きが広がりました。</t>
+    <rPh sb="51" eb="52">
+      <t>チガ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>コウドウ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>前方に歩行者がいない状態で加速を行なったところ、まれに起こりうる衝突が実際に発生いたしました。一方で、減速では行き詰まったような停滞感が募ってしまうと感じていましたが、結果的にはさらに大きな衝撃を被ることとなり、胸の内に深い嘆きが広がりました。</t>
+    <rPh sb="51" eb="53">
+      <t>ゲンソク</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>前方に歩行者がいない状態で加速を行なったところ、まれに起こりうる衝突が実際に発生いたしました。一方で、車線変更では行き詰まったような停滞感が募ってしまうと感じていましたが、結果的にはさらに大きな衝撃を被ることとなり、胸の内に深い嘆きが広がりました。</t>
+    <rPh sb="51" eb="55">
+      <t>シャセンヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>目的地到達への次の段階として選択した行動により、状態が変化する過程で予期せず衝突が発生しました。通常は歩行者のいない状態への移行が見込まれましたが、まれなケースとして衝突という状態遷移が起きました。</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>選択した行動は、多くの場合は衝突以外の状態への移行が予測されていましたが、まれに含まれていた衝突の可能性が実現し、目標とは異なる結果となりました。ゴールへの経路として選んだ行動でしたが、衝突という結果に至りました。</t>
+  </si>
+  <si>
+    <t>加速からの切り替えを選択した理由は、継続では衝突確率が高くゴールから遠ざかると予測されたためです。切り替え後の行動では衝突確率は低いと予測されていましたが、まれな確率の衝突が発生しました。</t>
+  </si>
+  <si>
+    <t>減速継続ではゴールへの到達が困難で衝突確率も高いと予測されたため、別の行動への切り替えを選択しました。新たな行動では衝突確率は低いとされていましたが、まれな確率で想定された衝突が発生しました。</t>
+  </si>
+  <si>
+    <t>車線変更の継続を選択したのは、他の行動への切り替えではより高い確率で衝突が予測されたためです。継続では衝突確率は低いとされていましたが、まれな確率で発生する可能性があった衝突が現実となりました。</t>
+  </si>
+  <si>
+    <t>何もしない状態の継続では衝突確率が高く、ゴールからも遠ざかると予測されたため、新たな行動への切り替えを選択しました。切り替え後は衝突確率が低いと予測されていましたが、まれな確率での衝突が発生しました。</t>
   </si>
 </sst>
 </file>
@@ -3188,8 +3231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{726BC851-A1BD-4B16-87C1-C6B05768817B}">
   <dimension ref="A1:Y99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="61" workbookViewId="0">
-      <selection activeCell="M49" sqref="M49"/>
+    <sheetView tabSelected="1" topLeftCell="O27" zoomScale="61" workbookViewId="0">
+      <selection activeCell="V32" sqref="V32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.7" x14ac:dyDescent="0.85"/>
@@ -3226,10 +3269,10 @@
         <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>28</v>
@@ -3256,7 +3299,7 @@
         <v>11</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>35</v>
@@ -3300,61 +3343,61 @@
         <v>15</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="J2" s="1">
         <v>8</v>
       </c>
       <c r="K2" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="Q2" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>530</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>531</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>533</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>535</v>
-      </c>
       <c r="R2" s="1" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="114" customHeight="1" x14ac:dyDescent="0.85">
@@ -3380,46 +3423,46 @@
         <v>15</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="T3" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="Y3" s="2" t="s">
         <v>568</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>573</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>564</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>565</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>566</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="114" customHeight="1" x14ac:dyDescent="0.85">
@@ -3445,46 +3488,46 @@
         <v>16</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>565</v>
+        <v>579</v>
       </c>
       <c r="X4" s="2" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="Y4" s="2" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="114" customHeight="1" x14ac:dyDescent="0.85">
@@ -3510,46 +3553,46 @@
         <v>17</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="S5" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="V5" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="T5" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="U5" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="V5" s="2" t="s">
-        <v>564</v>
-      </c>
       <c r="W5" s="2" t="s">
-        <v>565</v>
+        <v>580</v>
       </c>
       <c r="X5" s="2" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="Y5" s="2" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="114" customHeight="1" x14ac:dyDescent="0.85">
@@ -3575,49 +3618,49 @@
         <v>18</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="N6" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="U6" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="O6" s="2" t="s">
-        <v>557</v>
-      </c>
-      <c r="P6" s="2" t="s">
+      <c r="V6" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="Q6" s="2" t="s">
+      <c r="W6" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="S6" s="2" t="s">
-        <v>579</v>
-      </c>
-      <c r="T6" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="U6" s="2" t="s">
-        <v>562</v>
-      </c>
-      <c r="V6" s="2" t="s">
-        <v>564</v>
-      </c>
-      <c r="W6" s="2" t="s">
-        <v>565</v>
-      </c>
       <c r="X6" s="2" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="Y6" s="2" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="114" customHeight="1" x14ac:dyDescent="0.85">
@@ -3640,58 +3683,58 @@
         <v>18</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="J7" s="1">
         <v>4</v>
       </c>
       <c r="K7" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="Q7" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>418</v>
-      </c>
       <c r="R7" s="2" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="S7" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="V7" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="W7" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="X7" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="Y7" s="2" t="s">
         <v>499</v>
-      </c>
-      <c r="T7" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="U7" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="V7" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="W7" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="X7" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="Y7" s="2" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="8" spans="1:25" ht="114" customHeight="1" x14ac:dyDescent="0.85">
@@ -3717,47 +3760,47 @@
         <v>15</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="R8" s="2"/>
       <c r="S8" s="2" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="V8" s="2" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="W8" s="2" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="X8" s="2" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="Y8" s="2" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="114" customHeight="1" x14ac:dyDescent="0.85">
@@ -3783,47 +3826,47 @@
         <v>16</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="R9"/>
       <c r="S9" s="2" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="V9" s="2" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="W9" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="X9" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="X9" s="2" t="s">
-        <v>515</v>
-      </c>
       <c r="Y9" s="2" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="114" customHeight="1" x14ac:dyDescent="0.85">
@@ -3849,47 +3892,47 @@
         <v>17</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="R10" s="2"/>
       <c r="S10" s="2" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="V10" s="2" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="W10" s="2" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="X10" s="2" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="Y10" s="2" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="114" customHeight="1" x14ac:dyDescent="0.85">
@@ -3915,50 +3958,50 @@
         <v>18</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="R11" s="2"/>
       <c r="S11" s="2" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="U11" s="2" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="V11" s="2" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="W11" s="2" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="X11" s="2" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="Y11" s="2" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="114" customHeight="1" x14ac:dyDescent="0.85">
@@ -3972,7 +4015,7 @@
         <v>12</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>14</v>
@@ -3981,61 +4024,61 @@
         <v>15</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="J12" s="1">
         <v>7</v>
       </c>
       <c r="K12" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q12" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="L12" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="Q12" s="2" t="s">
-        <v>356</v>
-      </c>
       <c r="R12" s="1" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="S12" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="U12" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="W12" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="X12" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="Y12" s="2" t="s">
         <v>381</v>
-      </c>
-      <c r="T12" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="U12" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="V12" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="W12" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="X12" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="Y12" s="2" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="114" customHeight="1" x14ac:dyDescent="0.85">
@@ -4049,7 +4092,7 @@
         <v>12</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>14</v>
@@ -4061,55 +4104,55 @@
         <v>15</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="W13" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="X13" s="1" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="Y13" s="2" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
     </row>
     <row r="14" spans="1:25" ht="114" customHeight="1" x14ac:dyDescent="0.85">
@@ -4123,7 +4166,7 @@
         <v>12</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>14</v>
@@ -4135,46 +4178,46 @@
         <v>16</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="U14" s="2" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="W14" s="1" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="X14" s="1" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="Y14" s="2" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
     </row>
     <row r="15" spans="1:25" ht="114" customHeight="1" x14ac:dyDescent="0.85">
@@ -4188,7 +4231,7 @@
         <v>12</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>14</v>
@@ -4200,49 +4243,49 @@
         <v>17</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="U15" s="2" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="V15" s="1" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="W15" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="X15" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="X15" s="1" t="s">
-        <v>403</v>
-      </c>
       <c r="Y15" s="2" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
     </row>
     <row r="16" spans="1:25" ht="114" customHeight="1" x14ac:dyDescent="0.85">
@@ -4256,7 +4299,7 @@
         <v>12</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>14</v>
@@ -4268,46 +4311,46 @@
         <v>18</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="P16" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="S16" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="T16" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="Q16" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="S16" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="T16" s="2" t="s">
-        <v>382</v>
-      </c>
       <c r="U16" s="2" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="V16" s="1" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="W16" s="1" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="X16" s="1" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="Y16" s="2" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
     </row>
     <row r="17" spans="1:25" ht="114" customHeight="1" x14ac:dyDescent="0.85">
@@ -4321,7 +4364,7 @@
         <v>12</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>19</v>
@@ -4330,58 +4373,58 @@
         <v>17</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="J17" s="1">
         <v>3</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="U17" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>197</v>
+        <v>581</v>
       </c>
       <c r="W17" s="1" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="X17" s="1" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="Y17" s="2" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18" spans="1:25" ht="114" customHeight="1" x14ac:dyDescent="0.85">
@@ -4395,7 +4438,7 @@
         <v>12</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>19</v>
@@ -4407,52 +4450,52 @@
         <v>15</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="U18" s="2" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="V18" s="1" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="W18" s="1" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="X18" s="1" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="Y18" s="2" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="19" spans="1:25" ht="114" customHeight="1" x14ac:dyDescent="0.85">
@@ -4466,7 +4509,7 @@
         <v>12</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>19</v>
@@ -4478,46 +4521,46 @@
         <v>16</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="L19" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="M19" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="M19" s="2" t="s">
-        <v>161</v>
-      </c>
       <c r="N19" s="1" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="T19" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="U19" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="U19" s="2" t="s">
-        <v>172</v>
-      </c>
       <c r="V19" s="1" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="W19" s="1" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="X19" s="1" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="Y19" s="2" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="20" spans="1:25" ht="114" customHeight="1" x14ac:dyDescent="0.85">
@@ -4531,7 +4574,7 @@
         <v>12</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>19</v>
@@ -4543,49 +4586,49 @@
         <v>17</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="K20" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="S20" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="T20" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="L20" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="M20" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="O20" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="P20" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q20" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="S20" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="T20" s="2" t="s">
-        <v>167</v>
-      </c>
       <c r="U20" s="2" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="V20" s="1" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="W20" s="1" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="X20" s="1" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="Y20" s="2" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="21" spans="1:25" ht="114" customHeight="1" x14ac:dyDescent="0.85">
@@ -4599,7 +4642,7 @@
         <v>12</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>19</v>
@@ -4611,46 +4654,46 @@
         <v>18</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="T21" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="U21" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="V21" s="1" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="W21" s="1" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="X21" s="1" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="Y21" s="2" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="22" spans="1:25" ht="114" customHeight="1" x14ac:dyDescent="0.85">
@@ -4664,7 +4707,7 @@
         <v>12</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>14</v>
@@ -4673,61 +4716,61 @@
         <v>15</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="J22" s="1">
         <v>6</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="Q22" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="S22" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="T22" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="R22" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="S22" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="T22" s="2" t="s">
-        <v>276</v>
-      </c>
       <c r="U22" s="2" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="V22" s="1" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="W22" s="1" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="X22" s="1" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="Y22" s="2" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="23" spans="1:25" ht="114" customHeight="1" x14ac:dyDescent="0.85">
@@ -4741,7 +4784,7 @@
         <v>12</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>14</v>
@@ -4753,55 +4796,55 @@
         <v>15</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="T23" s="2" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="U23" s="2" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="V23" s="1" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="W23" s="1" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="X23" s="1" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="Y23" s="2" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="24" spans="1:25" ht="114" customHeight="1" x14ac:dyDescent="0.85">
@@ -4815,7 +4858,7 @@
         <v>12</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>14</v>
@@ -4827,55 +4870,55 @@
         <v>16</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="L24" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="N24" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="M24" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="N24" s="1" t="s">
-        <v>266</v>
-      </c>
       <c r="O24" s="1" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="S24" s="2" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="T24" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="U24" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="V24" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="U24" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="V24" s="1" t="s">
-        <v>282</v>
-      </c>
       <c r="W24" s="1" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="X24" s="1" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="Y24" s="2" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="25" spans="1:25" ht="114" customHeight="1" x14ac:dyDescent="0.85">
@@ -4889,7 +4932,7 @@
         <v>12</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>14</v>
@@ -4901,49 +4944,49 @@
         <v>17</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="T25" s="2" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="U25" s="2" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="V25" s="1" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="W25" s="1" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="X25" s="1" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="Y25" s="2" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
     </row>
     <row r="26" spans="1:25" ht="114" customHeight="1" x14ac:dyDescent="0.85">
@@ -4957,7 +5000,7 @@
         <v>12</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>14</v>
@@ -4969,46 +5012,46 @@
         <v>18</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="T26" s="2" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="U26" s="2" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="V26" s="1" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="W26" s="1" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="X26" s="1" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="Y26" s="2" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="27" spans="1:25" ht="114" customHeight="1" x14ac:dyDescent="0.85">
@@ -5022,7 +5065,7 @@
         <v>12</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>19</v>
@@ -5031,28 +5074,28 @@
         <v>17</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="J27" s="1">
         <v>2</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="M27" s="1" t="s">
         <v>104</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="O27" s="1" t="s">
         <v>105</v>
@@ -5064,7 +5107,7 @@
         <v>107</v>
       </c>
       <c r="R27" s="1" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="S27" s="1" t="s">
         <v>129</v>
@@ -5075,17 +5118,17 @@
       <c r="U27" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="V27" s="1" t="s">
+      <c r="V27" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="W27" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="W27" s="1" t="s">
+      <c r="X27" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="X27" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="Y27" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="28" spans="1:25" ht="114" customHeight="1" x14ac:dyDescent="0.85">
@@ -5099,7 +5142,7 @@
         <v>20</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>19</v>
@@ -5111,16 +5154,16 @@
         <v>15</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="M28" s="1" t="s">
         <v>108</v>
@@ -5138,28 +5181,28 @@
         <v>112</v>
       </c>
       <c r="R28" s="1" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="S28" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T28" s="1" t="s">
         <v>130</v>
       </c>
       <c r="U28" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="V28" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="W28" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="V28" s="1" t="s">
+      <c r="X28" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="W28" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="X28" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="Y28" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="29" spans="1:25" ht="114" customHeight="1" x14ac:dyDescent="0.85">
@@ -5173,7 +5216,7 @@
         <v>12</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>19</v>
@@ -5185,16 +5228,16 @@
         <v>16</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="M29" s="1" t="s">
         <v>113</v>
@@ -5212,28 +5255,28 @@
         <v>117</v>
       </c>
       <c r="R29" s="1" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="S29" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="T29" s="1" t="s">
         <v>130</v>
       </c>
       <c r="U29" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="V29" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="W29" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="X29" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="V29" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="W29" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="X29" s="1" t="s">
-        <v>144</v>
-      </c>
       <c r="Y29" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="30" spans="1:25" ht="114" customHeight="1" x14ac:dyDescent="0.85">
@@ -5247,7 +5290,7 @@
         <v>12</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>19</v>
@@ -5259,13 +5302,13 @@
         <v>17</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="K30" s="1" t="s">
         <v>118</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="M30" s="1" t="s">
         <v>119</v>
@@ -5283,28 +5326,28 @@
         <v>123</v>
       </c>
       <c r="R30" s="1" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="S30" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="T30" s="1" t="s">
         <v>130</v>
       </c>
       <c r="U30" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="V30" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
+      </c>
+      <c r="V30" s="2" t="s">
+        <v>585</v>
       </c>
       <c r="W30" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="X30" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="Y30" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="31" spans="1:25" ht="114" customHeight="1" x14ac:dyDescent="0.85">
@@ -5318,7 +5361,7 @@
         <v>12</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>19</v>
@@ -5330,10 +5373,10 @@
         <v>18</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="M31" s="1" t="s">
         <v>124</v>
@@ -5351,25 +5394,25 @@
         <v>128</v>
       </c>
       <c r="S31" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="T31" s="1" t="s">
         <v>130</v>
       </c>
       <c r="U31" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="V31" s="1" t="s">
-        <v>152</v>
+        <v>147</v>
+      </c>
+      <c r="V31" s="2" t="s">
+        <v>586</v>
       </c>
       <c r="W31" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="X31" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="Y31" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="32" spans="1:25" ht="114" customHeight="1" x14ac:dyDescent="0.85">
@@ -5383,7 +5426,7 @@
         <v>12</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>14</v>
@@ -5392,58 +5435,58 @@
         <v>16</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="J32" s="1">
         <v>5</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="S32" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="T32" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="U32" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="V32" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="W32" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="X32" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="Y32" s="1" t="s">
         <v>289</v>
-      </c>
-      <c r="T32" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="U32" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="V32" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="W32" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="X32" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="Y32" s="1" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="33" spans="1:25" ht="114" customHeight="1" x14ac:dyDescent="0.85">
@@ -5457,7 +5500,7 @@
         <v>12</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>14</v>
@@ -5469,52 +5512,52 @@
         <v>15</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="M33" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="P33" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="N33" s="1" t="s">
+      <c r="Q33" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="O33" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="P33" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="Q33" s="1" t="s">
-        <v>343</v>
-      </c>
       <c r="S33" s="1" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="T33" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="U33" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="V33" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="W33" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="X33" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="Y33" s="1" t="s">
         <v>290</v>
-      </c>
-      <c r="U33" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="V33" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="W33" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="X33" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="Y33" s="1" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="34" spans="1:25" ht="114" customHeight="1" x14ac:dyDescent="0.85">
@@ -5528,7 +5571,7 @@
         <v>12</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>14</v>
@@ -5540,46 +5583,46 @@
         <v>16</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="Q34" s="1" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="S34" s="1" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="T34" s="1" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="U34" s="1" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="V34" s="1" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="W34" s="1" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="X34" s="1" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="Y34" s="1" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
     </row>
     <row r="35" spans="1:25" ht="114" customHeight="1" x14ac:dyDescent="0.85">
@@ -5593,7 +5636,7 @@
         <v>12</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>14</v>
@@ -5605,49 +5648,49 @@
         <v>17</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="Q35" s="1" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="S35" s="1" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="T35" s="1" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="U35" s="1" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="V35" s="1" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="W35" s="1" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="X35" s="1" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="Y35" s="1" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
     </row>
     <row r="36" spans="1:25" ht="114" customHeight="1" x14ac:dyDescent="0.85">
@@ -5661,7 +5704,7 @@
         <v>12</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>14</v>
@@ -5673,46 +5716,46 @@
         <v>18</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="Q36" s="1" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="S36" s="1" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="T36" s="1" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="U36" s="1" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="V36" s="1" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="W36" s="1" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="X36" s="1" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="Y36" s="1" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="37" spans="1:25" ht="114" customHeight="1" x14ac:dyDescent="0.85">
@@ -5726,7 +5769,7 @@
         <v>12</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>19</v>
@@ -5735,13 +5778,13 @@
         <v>17</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="J37" s="1">
         <v>1</v>
@@ -5768,7 +5811,7 @@
         <v>79</v>
       </c>
       <c r="R37" s="1" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="S37" s="1" t="s">
         <v>42</v>
@@ -5803,7 +5846,7 @@
         <v>12</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>19</v>
@@ -5815,10 +5858,10 @@
         <v>15</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="K38" s="1" t="s">
         <v>80</v>
@@ -5842,7 +5885,7 @@
         <v>85</v>
       </c>
       <c r="R38" s="1" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="S38" s="1" t="s">
         <v>49</v>
@@ -5877,7 +5920,7 @@
         <v>12</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>19</v>
@@ -5942,7 +5985,7 @@
         <v>12</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>19</v>
@@ -5954,7 +5997,7 @@
         <v>17</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="K40" s="1" t="s">
         <v>92</v>
@@ -5978,7 +6021,7 @@
         <v>97</v>
       </c>
       <c r="R40" s="1" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="S40" s="1" t="s">
         <v>61</v>
@@ -6013,7 +6056,7 @@
         <v>12</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>19</v>

--- a/explanation3.xlsx
+++ b/explanation3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gifuunivai-my.sharepoint.com/personal/mibuki_takagi_ai_info_gifu-u_ac_jp/Documents/explanation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="8_{52D39326-A449-4BEE-BAF4-A63A831D2F6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A74B13BE-A0E6-4BF4-81DC-3836F290BAB5}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{6A0D84E5-3F28-4B9E-9D42-A72FC38B2222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{6511738B-F992-40D5-9DB8-4F9F2F9FB648}"/>
   </bookViews>
@@ -3231,8 +3231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{726BC851-A1BD-4B16-87C1-C6B05768817B}">
   <dimension ref="A1:Y99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O27" zoomScale="61" workbookViewId="0">
-      <selection activeCell="V32" sqref="V32"/>
+    <sheetView tabSelected="1" topLeftCell="O26" zoomScale="61" workbookViewId="0">
+      <selection activeCell="V26" sqref="V26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.7" x14ac:dyDescent="0.85"/>
